--- a/public/download/03.项目人员导入模板.xlsx
+++ b/public/download/03.项目人员导入模板.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcos/Documents/work/gchf/xn-gchf-company/public/download/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,18 +113,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -122,6 +130,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,356 +138,27 @@
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -486,255 +166,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,58 +200,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1075,49 +472,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7272727272727" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.8333333333333" style="1"/>
-    <col min="6" max="6" width="22.0909090909091" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.8333333333333" style="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="22.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.8333333333333" style="2" customWidth="1"/>
-    <col min="14" max="16" width="10.8333333333333" style="1"/>
-    <col min="17" max="17" width="17.3333333333333" customWidth="1"/>
-    <col min="18" max="18" width="10.8333333333333" style="1"/>
-    <col min="19" max="19" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11" style="1"/>
+    <col min="17" max="17" width="17.33203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1"/>
+    <col min="19" max="19" width="13.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="17.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="17.1666666666667" customWidth="1"/>
-    <col min="24" max="24" width="21" customWidth="1"/>
-    <col min="25" max="25" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="21" style="10" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="2" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="25.1666666666667" customWidth="1"/>
-    <col min="28" max="28" width="23" customWidth="1"/>
-    <col min="37" max="37" width="21.2727272727273" customWidth="1"/>
-    <col min="38" max="38" width="13.9090909090909" customWidth="1"/>
-    <col min="39" max="39" width="14.3636363636364" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="23" style="10" customWidth="1"/>
+    <col min="37" max="37" width="21.33203125" customWidth="1"/>
+    <col min="38" max="38" width="13.83203125" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +563,7 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -1187,7 +584,7 @@
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="6" t="s">
@@ -1196,10 +593,10 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AJ1" s="8"/>
@@ -1210,7 +607,7 @@
       <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
     </row>
-    <row r="2" spans="36:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
@@ -1219,7 +616,7 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
     </row>
-    <row r="3" spans="36:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1228,7 +625,7 @@
       <c r="AO3" s="8"/>
       <c r="AP3" s="8"/>
     </row>
-    <row r="4" spans="36:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
@@ -1237,7 +634,7 @@
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
     </row>
-    <row r="5" spans="36:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
@@ -1246,7 +643,7 @@
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
     </row>
-    <row r="6" spans="36:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
@@ -1254,7 +651,7 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
     </row>
-    <row r="7" spans="36:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
@@ -1262,7 +659,7 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
     </row>
-    <row r="8" spans="36:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
@@ -1270,7 +667,7 @@
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
     </row>
-    <row r="9" spans="36:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
@@ -1278,7 +675,7 @@
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
     </row>
-    <row r="10" spans="36:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
@@ -1286,7 +683,7 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
     </row>
-    <row r="11" spans="36:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
@@ -1294,7 +691,7 @@
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
     </row>
-    <row r="12" spans="36:41">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
@@ -1302,7 +699,7 @@
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
     </row>
-    <row r="13" spans="36:41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
@@ -1310,7 +707,7 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
     </row>
-    <row r="14" spans="36:41">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
@@ -1318,7 +715,7 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
     </row>
-    <row r="15" spans="36:41">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
@@ -1326,7 +723,7 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
     </row>
-    <row r="16" spans="36:41">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
@@ -1334,7 +731,7 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
     </row>
-    <row r="17" spans="36:41">
+    <row r="17" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
@@ -1342,7 +739,7 @@
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
     </row>
-    <row r="18" spans="36:41">
+    <row r="18" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -1350,7 +747,7 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
     </row>
-    <row r="19" spans="36:41">
+    <row r="19" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
@@ -1358,7 +755,7 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
     </row>
-    <row r="20" spans="36:41">
+    <row r="20" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
@@ -1366,7 +763,7 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
     </row>
-    <row r="21" spans="36:41">
+    <row r="21" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
@@ -1374,7 +771,7 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
     </row>
-    <row r="22" spans="36:41">
+    <row r="22" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
@@ -1382,7 +779,7 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
     </row>
-    <row r="23" spans="36:41">
+    <row r="23" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
@@ -1390,7 +787,7 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
     </row>
-    <row r="24" spans="36:41">
+    <row r="24" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
@@ -1398,7 +795,7 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
     </row>
-    <row r="25" spans="36:41">
+    <row r="25" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
@@ -1406,7 +803,7 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
     </row>
-    <row r="26" ht="16" customHeight="1" spans="36:41">
+    <row r="26" spans="36:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
@@ -1414,7 +811,7 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
     </row>
-    <row r="27" spans="36:41">
+    <row r="27" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
@@ -1422,7 +819,7 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
     </row>
-    <row r="28" spans="36:41">
+    <row r="28" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
@@ -1430,7 +827,7 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
     </row>
-    <row r="29" spans="36:41">
+    <row r="29" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
       <c r="AL29" s="8"/>
@@ -1438,7 +835,7 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
     </row>
-    <row r="30" spans="36:41">
+    <row r="30" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
@@ -1446,7 +843,7 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
     </row>
-    <row r="31" spans="36:41">
+    <row r="31" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
       <c r="AL31" s="8"/>
@@ -1454,7 +851,7 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
     </row>
-    <row r="32" spans="36:41">
+    <row r="32" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
       <c r="AL32" s="8"/>
@@ -1463,8 +860,9 @@
       <c r="AO32" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1234">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1234 M1:M1048576 U1:U1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1479">
@@ -1484,6 +882,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>